--- a/finalwriteup/Construc_IT.xlsx
+++ b/finalwriteup/Construc_IT.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="110" windowWidth="15300" windowHeight="5580"/>
+    <workbookView xWindow="400" yWindow="120" windowWidth="23600" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Construction</t>
   </si>
@@ -78,12 +83,6 @@
     <t>Alternative contract structure</t>
   </si>
   <si>
-    <t>Not suitable to the nature of the projects</t>
-  </si>
-  <si>
-    <t>Gravitating towards Agile</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -136,13 +135,40 @@
   </si>
   <si>
     <t>outperformed by NN, but sometimes equal</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Industry adoption of Agile Methodology</t>
+  </si>
+  <si>
+    <t>Industry tradition and competition has resulted in less flexible contract expectations</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Equivalent findings between Construction and IT industries</t>
+  </si>
+  <si>
+    <t>Almost equivalent findings</t>
+  </si>
+  <si>
+    <t>Different findings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,19 +198,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4F9E7"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5E7630"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -194,18 +269,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FF376D15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFE7E7E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -216,36 +291,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -253,81 +302,24 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -335,205 +327,329 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -833,260 +949,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30"/>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:7" ht="26" customHeight="1" thickBot="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" ht="35" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="41" t="s">
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="26" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="55" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="43" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="44" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="39" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="61" customHeight="1">
+      <c r="A20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="29"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="23" customHeight="1">
+      <c r="G24" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" ht="42" customHeight="1">
+      <c r="G25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" customHeight="1">
+      <c r="G26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1">
+      <c r="G27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1096,9 +1265,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1108,8 +1282,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>